--- a/public/templates/mau-nhap-sinh-vien.xlsx
+++ b/public/templates/mau-nhap-sinh-vien.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DU AN QUAN LY SINH VIEN VA KET QUA HOC TAP\Frontend\free-nextjs-admin-dashboard-main\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566BC135-9301-4070-9715-D870D43005BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DanhSachSinhVien" sheetId="1" r:id="rId1"/>
@@ -24,33 +25,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>MaSinhVien</t>
-  </si>
-  <si>
-    <t>HoTen</t>
-  </si>
-  <si>
-    <t>MaLop</t>
-  </si>
-  <si>
-    <t>NgaySinh</t>
-  </si>
-  <si>
-    <t>GioiTinh</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>SDT</t>
-  </si>
-  <si>
-    <t>TinhTrang</t>
-  </si>
-  <si>
-    <t>NgayNhapHoc</t>
-  </si>
-  <si>
     <t>222001650</t>
   </si>
   <si>
@@ -219,16 +193,43 @@
     <t>0912121659</t>
   </si>
   <si>
-    <t>Địa Chỉ</t>
-  </si>
-  <si>
     <t>Đông Anh - Hà Nội</t>
+  </si>
+  <si>
+    <t>MaLop (Required)</t>
+  </si>
+  <si>
+    <t>TinhTrang (Required)</t>
+  </si>
+  <si>
+    <t>NgayNhapHoc (Required)</t>
+  </si>
+  <si>
+    <t>Email (Required)</t>
+  </si>
+  <si>
+    <t>SDT (Required)</t>
+  </si>
+  <si>
+    <t>Địa Chỉ (Required)</t>
+  </si>
+  <si>
+    <t>GioiTinh (Required)</t>
+  </si>
+  <si>
+    <t>NgaySinh (Required)</t>
+  </si>
+  <si>
+    <t>HoTen (Required)</t>
+  </si>
+  <si>
+    <t>MaSinhVien (Required)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -586,20 +587,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="43.140625" customWidth="1"/>
     <col min="7" max="7" width="27.42578125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
@@ -614,34 +615,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -649,34 +650,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -684,34 +685,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -719,34 +720,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -754,34 +755,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -789,34 +790,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -824,34 +825,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -859,34 +860,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -894,34 +895,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -929,34 +930,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>67</v>
-      </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -964,34 +965,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
